--- a/Code/Results/Cases/Case_2_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.046568776804803</v>
+        <v>1.071549776775584</v>
       </c>
       <c r="D2">
-        <v>1.060211198000701</v>
+        <v>1.074613030876448</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.064871153916958</v>
+        <v>1.083501457501438</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06517431358089</v>
+        <v>1.057250105275551</v>
       </c>
       <c r="J2">
-        <v>1.067440559582638</v>
+        <v>1.076473808171504</v>
       </c>
       <c r="K2">
-        <v>1.070890899611206</v>
+        <v>1.077301780854576</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.075495077199109</v>
+        <v>1.086166909069458</v>
       </c>
       <c r="N2">
-        <v>1.068956447614388</v>
+        <v>1.078002524452379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052689112331325</v>
+        <v>1.072786702988307</v>
       </c>
       <c r="D3">
-        <v>1.065116478876318</v>
+        <v>1.07561883176587</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.070288479370087</v>
+        <v>1.084638274852635</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067518167818956</v>
+        <v>1.057654343875325</v>
       </c>
       <c r="J3">
-        <v>1.071839666185859</v>
+        <v>1.07736734567015</v>
       </c>
       <c r="K3">
-        <v>1.074978837545979</v>
+        <v>1.07812427690539</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.080094571816952</v>
+        <v>1.087121789610901</v>
       </c>
       <c r="N3">
-        <v>1.073361801453571</v>
+        <v>1.078897330876763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.056549346672541</v>
+        <v>1.073586577157994</v>
       </c>
       <c r="D4">
-        <v>1.068212835434853</v>
+        <v>1.07626918190617</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.073710578470251</v>
+        <v>1.085373697675744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068986561323912</v>
+        <v>1.057914461699655</v>
       </c>
       <c r="J4">
-        <v>1.074609355183952</v>
+        <v>1.077944466793571</v>
       </c>
       <c r="K4">
-        <v>1.077552213216274</v>
+        <v>1.078655401353794</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.082993898858364</v>
+        <v>1.087738895706541</v>
       </c>
       <c r="N4">
-        <v>1.076135423727729</v>
+        <v>1.079475271578376</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.058149331537258</v>
+        <v>1.07392272692633</v>
       </c>
       <c r="D5">
-        <v>1.069496742692461</v>
+        <v>1.076542477744614</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.075130169630663</v>
+        <v>1.085682829196891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069592754697321</v>
+        <v>1.058023468432619</v>
       </c>
       <c r="J5">
-        <v>1.075756108883463</v>
+        <v>1.078186836839003</v>
       </c>
       <c r="K5">
-        <v>1.078617578549131</v>
+        <v>1.078878427445401</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.084195151551929</v>
+        <v>1.08799814519528</v>
       </c>
       <c r="N5">
-        <v>1.077283805949028</v>
+        <v>1.079717985817073</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.058416666005682</v>
+        <v>1.073979161138535</v>
       </c>
       <c r="D6">
-        <v>1.069711294739921</v>
+        <v>1.076588358823837</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.075367432012247</v>
+        <v>1.085734731421628</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069693897135155</v>
+        <v>1.058041750826837</v>
       </c>
       <c r="J6">
-        <v>1.075947641841471</v>
+        <v>1.078227517120324</v>
       </c>
       <c r="K6">
-        <v>1.07879551123552</v>
+        <v>1.07891585937764</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.084395835242258</v>
+        <v>1.088041663696569</v>
       </c>
       <c r="N6">
-        <v>1.077475610905805</v>
+        <v>1.07975872386906</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.056570814174629</v>
+        <v>1.073591069265784</v>
       </c>
       <c r="D7">
-        <v>1.068230059994888</v>
+        <v>1.076272834134578</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.073729620888989</v>
+        <v>1.085377828462567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068994704453706</v>
+        <v>1.057915919614757</v>
       </c>
       <c r="J7">
-        <v>1.074624746431122</v>
+        <v>1.077947706341062</v>
       </c>
       <c r="K7">
-        <v>1.077566512542276</v>
+        <v>1.078658382454021</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.083010018319719</v>
+        <v>1.087742360524022</v>
       </c>
       <c r="N7">
-        <v>1.076150836832235</v>
+        <v>1.079478515726396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.048658565133146</v>
+        <v>1.071967906665483</v>
       </c>
       <c r="D8">
-        <v>1.061885543611042</v>
+        <v>1.074953044113938</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.066719752715257</v>
+        <v>1.083885687140306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065976685212853</v>
+        <v>1.057387020590776</v>
       </c>
       <c r="J8">
-        <v>1.068943645311318</v>
+        <v>1.07677600317532</v>
       </c>
       <c r="K8">
-        <v>1.07228774266378</v>
+        <v>1.077579972754459</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.07706589374024</v>
+        <v>1.086489774721989</v>
       </c>
       <c r="N8">
-        <v>1.07046166789721</v>
+        <v>1.078305148607763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.033896964243926</v>
+        <v>1.069103754651956</v>
       </c>
       <c r="D9">
-        <v>1.050071940058265</v>
+        <v>1.072623748045478</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.053687125375491</v>
+        <v>1.081254946254327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060268255832455</v>
+        <v>1.056443883474534</v>
       </c>
       <c r="J9">
-        <v>1.058307007703534</v>
+        <v>1.074703148103896</v>
       </c>
       <c r="K9">
-        <v>1.062401706438762</v>
+        <v>1.075671307361818</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.065965333562469</v>
+        <v>1.084276635445957</v>
       </c>
       <c r="N9">
-        <v>1.059809925043983</v>
+        <v>1.076229349844378</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023423795183376</v>
+        <v>1.067191528128507</v>
       </c>
       <c r="D10">
-        <v>1.041710884483023</v>
+        <v>1.071068344574764</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.044476236287858</v>
+        <v>1.07950008668285</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056168320190097</v>
+        <v>1.055807582885756</v>
       </c>
       <c r="J10">
-        <v>1.050737924408261</v>
+        <v>1.073315660798892</v>
       </c>
       <c r="K10">
-        <v>1.055365773403343</v>
+        <v>1.074393155708833</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.05808635275909</v>
+        <v>1.082797139848423</v>
       </c>
       <c r="N10">
-        <v>1.052230092782245</v>
+        <v>1.074839892148253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.018718354440992</v>
+        <v>1.0663628170482</v>
       </c>
       <c r="D11">
-        <v>1.037960454389307</v>
+        <v>1.070394216653963</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.040347543459548</v>
+        <v>1.078739946722497</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05431516337375</v>
+        <v>1.055530257986799</v>
       </c>
       <c r="J11">
-        <v>1.047332640978375</v>
+        <v>1.072713517264057</v>
       </c>
       <c r="K11">
-        <v>1.052200322327067</v>
+        <v>1.07383832937649</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.054546669689018</v>
+        <v>1.08215551654785</v>
       </c>
       <c r="N11">
-        <v>1.048819973459297</v>
+        <v>1.074236893500532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.0169429727293</v>
+        <v>1.066054888026658</v>
       </c>
       <c r="D12">
-        <v>1.036546424638634</v>
+        <v>1.070143719468411</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.038791326599642</v>
+        <v>1.078457553741581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.053614356524293</v>
+        <v>1.055426975365256</v>
       </c>
       <c r="J12">
-        <v>1.046047190625997</v>
+        <v>1.072489649190558</v>
       </c>
       <c r="K12">
-        <v>1.051005420146357</v>
+        <v>1.073632033402876</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.053211260557107</v>
+        <v>1.081917038218707</v>
       </c>
       <c r="N12">
-        <v>1.047532697619976</v>
+        <v>1.074012707508691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.017325079422153</v>
+        <v>1.066120944820091</v>
       </c>
       <c r="D13">
-        <v>1.03685071127452</v>
+        <v>1.070197456339642</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.039126191420628</v>
+        <v>1.07851812997901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05376525901526</v>
+        <v>1.055449142153978</v>
       </c>
       <c r="J13">
-        <v>1.046323878776106</v>
+        <v>1.07253767896772</v>
       </c>
       <c r="K13">
-        <v>1.051262617181535</v>
+        <v>1.073676294064271</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.053498666772274</v>
+        <v>1.081968199486504</v>
       </c>
       <c r="N13">
-        <v>1.047809778698995</v>
+        <v>1.074060805493645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.018572175313502</v>
+        <v>1.06633736577668</v>
       </c>
       <c r="D14">
-        <v>1.037844006374098</v>
+        <v>1.070373512448025</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.040219377409966</v>
+        <v>1.078716604922313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054257493372702</v>
+        <v>1.055521726163607</v>
       </c>
       <c r="J14">
-        <v>1.047226813433631</v>
+        <v>1.072695016455799</v>
       </c>
       <c r="K14">
-        <v>1.0521019489516</v>
+        <v>1.073821281155699</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.0544367133126</v>
+        <v>1.082135806943073</v>
       </c>
       <c r="N14">
-        <v>1.048713995627301</v>
+        <v>1.074218366419004</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.019336836826618</v>
+        <v>1.066470695360075</v>
       </c>
       <c r="D15">
-        <v>1.038453187040224</v>
+        <v>1.07048197364656</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.040889876675011</v>
+        <v>1.078838886108192</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054559099718229</v>
+        <v>1.055566411520768</v>
       </c>
       <c r="J15">
-        <v>1.047780371293204</v>
+        <v>1.072791930030866</v>
       </c>
       <c r="K15">
-        <v>1.052616516593456</v>
+        <v>1.073910584772675</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.055011899751533</v>
+        <v>1.082239055382331</v>
       </c>
       <c r="N15">
-        <v>1.049268339602529</v>
+        <v>1.074315417622465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.023732325153237</v>
+        <v>1.067246511857068</v>
       </c>
       <c r="D16">
-        <v>1.041956930680807</v>
+        <v>1.071113070848035</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.044747158397775</v>
+        <v>1.079550528724595</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056289604169892</v>
+        <v>1.055825949963614</v>
       </c>
       <c r="J16">
-        <v>1.050961114719913</v>
+        <v>1.073355594420776</v>
       </c>
       <c r="K16">
-        <v>1.055573245497673</v>
+        <v>1.074429948521984</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.058318457834555</v>
+        <v>1.082839701217869</v>
       </c>
       <c r="N16">
-        <v>1.052453600049739</v>
+        <v>1.07487988248046</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026442532808183</v>
+        <v>1.067732970349151</v>
       </c>
       <c r="D17">
-        <v>1.044118964603169</v>
+        <v>1.071508772117877</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.047128111350211</v>
+        <v>1.079996848546906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057353742582341</v>
+        <v>1.055988268278223</v>
       </c>
       <c r="J17">
-        <v>1.052921162596175</v>
+        <v>1.073708802738863</v>
       </c>
       <c r="K17">
-        <v>1.057395255549988</v>
+        <v>1.074755361485738</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.060357365540882</v>
+        <v>1.083216203613989</v>
       </c>
       <c r="N17">
-        <v>1.054416431418807</v>
+        <v>1.075233592394874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.028007043573576</v>
+        <v>1.068016645599695</v>
       </c>
       <c r="D18">
-        <v>1.045367598391323</v>
+        <v>1.071739517502985</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.048503455203615</v>
+        <v>1.080257153027346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057966979877117</v>
+        <v>1.056082771953352</v>
       </c>
       <c r="J18">
-        <v>1.054052192216997</v>
+        <v>1.073914692825141</v>
       </c>
       <c r="K18">
-        <v>1.058446627572272</v>
+        <v>1.074945036499127</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.061534372620822</v>
+        <v>1.083435715509237</v>
       </c>
       <c r="N18">
-        <v>1.055549067231421</v>
+        <v>1.07543977486869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028537791546867</v>
+        <v>1.068113360126674</v>
       </c>
       <c r="D19">
-        <v>1.045791280295384</v>
+        <v>1.071818185510773</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.048970179457694</v>
+        <v>1.080345905722553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058174835178867</v>
+        <v>1.056114965805932</v>
       </c>
       <c r="J19">
-        <v>1.054435808634464</v>
+        <v>1.073984873973522</v>
       </c>
       <c r="K19">
-        <v>1.058803224948029</v>
+        <v>1.075009688292339</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.061933662904046</v>
+        <v>1.083510547235448</v>
       </c>
       <c r="N19">
-        <v>1.055933228428203</v>
+        <v>1.075510055682351</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026153453455363</v>
+        <v>1.067680784988225</v>
       </c>
       <c r="D20">
-        <v>1.043888295760527</v>
+        <v>1.071466323384684</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.046874057071484</v>
+        <v>1.079948965391641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057240347162561</v>
+        <v>1.055970871049232</v>
       </c>
       <c r="J20">
-        <v>1.052712142827957</v>
+        <v>1.073670920327005</v>
       </c>
       <c r="K20">
-        <v>1.057200956440086</v>
+        <v>1.074720461510257</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.060139886980183</v>
+        <v>1.083175818370887</v>
       </c>
       <c r="N20">
-        <v>1.054207114818543</v>
+        <v>1.075195656185645</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.018205714488143</v>
+        <v>1.066273638227467</v>
       </c>
       <c r="D21">
-        <v>1.037552096212042</v>
+        <v>1.070321670977757</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.039898099530124</v>
+        <v>1.078658160205437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054112893156956</v>
+        <v>1.055500359493061</v>
       </c>
       <c r="J21">
-        <v>1.046961501411817</v>
+        <v>1.072648690166255</v>
       </c>
       <c r="K21">
-        <v>1.051855325000016</v>
+        <v>1.073778591847799</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.054161062768358</v>
+        <v>1.082086454904095</v>
       </c>
       <c r="N21">
-        <v>1.048448306831985</v>
+        <v>1.074171974340815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.013048014707991</v>
+        <v>1.065388278070815</v>
       </c>
       <c r="D22">
-        <v>1.03344624043762</v>
+        <v>1.069601425947123</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.035380182988021</v>
+        <v>1.077846329097463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05207400156921</v>
+        <v>1.055202957121993</v>
       </c>
       <c r="J22">
-        <v>1.04322601154129</v>
+        <v>1.072004785549655</v>
       </c>
       <c r="K22">
-        <v>1.048383016217861</v>
+        <v>1.073185192278749</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.050281890566513</v>
+        <v>1.081400655069674</v>
       </c>
       <c r="N22">
-        <v>1.044707512137374</v>
+        <v>1.073527155305803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.015798143220982</v>
+        <v>1.06585768507169</v>
       </c>
       <c r="D23">
-        <v>1.035634910638004</v>
+        <v>1.069983294803458</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.037788275364943</v>
+        <v>1.078276720544814</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.053162008133504</v>
+        <v>1.05536076518875</v>
       </c>
       <c r="J23">
-        <v>1.045218119770273</v>
+        <v>1.072346244834908</v>
       </c>
       <c r="K23">
-        <v>1.050234756310263</v>
+        <v>1.073499879763228</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.052350189370065</v>
+        <v>1.081764293978745</v>
       </c>
       <c r="N23">
-        <v>1.046702449388541</v>
+        <v>1.073869099502407</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026284126221871</v>
+        <v>1.067704365515865</v>
       </c>
       <c r="D24">
-        <v>1.043992563432657</v>
+        <v>1.071485504326939</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.046988894639058</v>
+        <v>1.07997060180979</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057291608658327</v>
+        <v>1.055978732645346</v>
       </c>
       <c r="J24">
-        <v>1.052806627566589</v>
+        <v>1.073688038161068</v>
       </c>
       <c r="K24">
-        <v>1.057288786905408</v>
+        <v>1.074736231717478</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.060238193945012</v>
+        <v>1.083194067019258</v>
       </c>
       <c r="N24">
-        <v>1.054301733736341</v>
+        <v>1.075212798328996</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.037818195351396</v>
+        <v>1.069844687800476</v>
       </c>
       <c r="D25">
-        <v>1.053206921310648</v>
+        <v>1.073226368583161</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.057143343360287</v>
+        <v>1.08193523094691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0617933850069</v>
+        <v>1.056689033045313</v>
       </c>
       <c r="J25">
-        <v>1.061136576026305</v>
+        <v>1.075240008069137</v>
       </c>
       <c r="K25">
-        <v>1.065031829398485</v>
+        <v>1.076165743259887</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.068914922856008</v>
+        <v>1.084849495850852</v>
       </c>
       <c r="N25">
-        <v>1.062643511678328</v>
+        <v>1.076766972212349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071549776775584</v>
+        <v>1.046568776804803</v>
       </c>
       <c r="D2">
-        <v>1.074613030876448</v>
+        <v>1.060211198000701</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.083501457501438</v>
+        <v>1.064871153916958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057250105275551</v>
+        <v>1.06517431358089</v>
       </c>
       <c r="J2">
-        <v>1.076473808171504</v>
+        <v>1.067440559582638</v>
       </c>
       <c r="K2">
-        <v>1.077301780854576</v>
+        <v>1.070890899611206</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.086166909069458</v>
+        <v>1.075495077199108</v>
       </c>
       <c r="N2">
-        <v>1.078002524452379</v>
+        <v>1.068956447614388</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072786702988307</v>
+        <v>1.052689112331326</v>
       </c>
       <c r="D3">
-        <v>1.07561883176587</v>
+        <v>1.065116478876319</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.084638274852635</v>
+        <v>1.070288479370089</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057654343875325</v>
+        <v>1.067518167818957</v>
       </c>
       <c r="J3">
-        <v>1.07736734567015</v>
+        <v>1.07183966618586</v>
       </c>
       <c r="K3">
-        <v>1.07812427690539</v>
+        <v>1.07497883754598</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.087121789610901</v>
+        <v>1.080094571816953</v>
       </c>
       <c r="N3">
-        <v>1.078897330876763</v>
+        <v>1.073361801453572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073586577157994</v>
+        <v>1.056549346672538</v>
       </c>
       <c r="D4">
-        <v>1.07626918190617</v>
+        <v>1.06821283543485</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.085373697675744</v>
+        <v>1.073710578470249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057914461699655</v>
+        <v>1.068986561323911</v>
       </c>
       <c r="J4">
-        <v>1.077944466793571</v>
+        <v>1.07460935518395</v>
       </c>
       <c r="K4">
-        <v>1.078655401353794</v>
+        <v>1.077552213216272</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.087738895706541</v>
+        <v>1.082993898858361</v>
       </c>
       <c r="N4">
-        <v>1.079475271578376</v>
+        <v>1.076135423727727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07392272692633</v>
+        <v>1.058149331537259</v>
       </c>
       <c r="D5">
-        <v>1.076542477744614</v>
+        <v>1.069496742692462</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.085682829196891</v>
+        <v>1.075130169630664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058023468432619</v>
+        <v>1.069592754697321</v>
       </c>
       <c r="J5">
-        <v>1.078186836839003</v>
+        <v>1.075756108883464</v>
       </c>
       <c r="K5">
-        <v>1.078878427445401</v>
+        <v>1.078617578549132</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.08799814519528</v>
+        <v>1.08419515155193</v>
       </c>
       <c r="N5">
-        <v>1.079717985817073</v>
+        <v>1.077283805949029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073979161138535</v>
+        <v>1.058416666005682</v>
       </c>
       <c r="D6">
-        <v>1.076588358823837</v>
+        <v>1.069711294739921</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.085734731421628</v>
+        <v>1.075367432012247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058041750826837</v>
+        <v>1.069693897135155</v>
       </c>
       <c r="J6">
-        <v>1.078227517120324</v>
+        <v>1.075947641841471</v>
       </c>
       <c r="K6">
-        <v>1.07891585937764</v>
+        <v>1.07879551123552</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.088041663696569</v>
+        <v>1.084395835242258</v>
       </c>
       <c r="N6">
-        <v>1.07975872386906</v>
+        <v>1.077475610905805</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073591069265784</v>
+        <v>1.05657081417463</v>
       </c>
       <c r="D7">
-        <v>1.076272834134578</v>
+        <v>1.068230059994888</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.085377828462567</v>
+        <v>1.073729620888989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057915919614757</v>
+        <v>1.068994704453706</v>
       </c>
       <c r="J7">
-        <v>1.077947706341062</v>
+        <v>1.074624746431122</v>
       </c>
       <c r="K7">
-        <v>1.078658382454021</v>
+        <v>1.077566512542276</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.087742360524022</v>
+        <v>1.083010018319719</v>
       </c>
       <c r="N7">
-        <v>1.079478515726396</v>
+        <v>1.076150836832236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071967906665483</v>
+        <v>1.048658565133146</v>
       </c>
       <c r="D8">
-        <v>1.074953044113938</v>
+        <v>1.061885543611043</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.083885687140306</v>
+        <v>1.066719752715258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057387020590776</v>
+        <v>1.065976685212853</v>
       </c>
       <c r="J8">
-        <v>1.07677600317532</v>
+        <v>1.068943645311319</v>
       </c>
       <c r="K8">
-        <v>1.077579972754459</v>
+        <v>1.07228774266378</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.086489774721989</v>
+        <v>1.07706589374024</v>
       </c>
       <c r="N8">
-        <v>1.078305148607763</v>
+        <v>1.070461667897211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069103754651956</v>
+        <v>1.033896964243925</v>
       </c>
       <c r="D9">
-        <v>1.072623748045478</v>
+        <v>1.050071940058264</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.081254946254327</v>
+        <v>1.05368712537549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056443883474534</v>
+        <v>1.060268255832454</v>
       </c>
       <c r="J9">
-        <v>1.074703148103896</v>
+        <v>1.058307007703533</v>
       </c>
       <c r="K9">
-        <v>1.075671307361818</v>
+        <v>1.062401706438761</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.084276635445957</v>
+        <v>1.065965333562468</v>
       </c>
       <c r="N9">
-        <v>1.076229349844378</v>
+        <v>1.059809925043983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067191528128507</v>
+        <v>1.023423795183376</v>
       </c>
       <c r="D10">
-        <v>1.071068344574764</v>
+        <v>1.041710884483023</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.07950008668285</v>
+        <v>1.044476236287859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055807582885756</v>
+        <v>1.056168320190097</v>
       </c>
       <c r="J10">
-        <v>1.073315660798892</v>
+        <v>1.050737924408262</v>
       </c>
       <c r="K10">
-        <v>1.074393155708833</v>
+        <v>1.055365773403344</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.082797139848423</v>
+        <v>1.05808635275909</v>
       </c>
       <c r="N10">
-        <v>1.074839892148253</v>
+        <v>1.052230092782246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0663628170482</v>
+        <v>1.01871835444099</v>
       </c>
       <c r="D11">
-        <v>1.070394216653963</v>
+        <v>1.037960454389305</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.078739946722497</v>
+        <v>1.040347543459546</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055530257986799</v>
+        <v>1.054315163373749</v>
       </c>
       <c r="J11">
-        <v>1.072713517264057</v>
+        <v>1.047332640978373</v>
       </c>
       <c r="K11">
-        <v>1.07383832937649</v>
+        <v>1.052200322327065</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.08215551654785</v>
+        <v>1.054546669689016</v>
       </c>
       <c r="N11">
-        <v>1.074236893500532</v>
+        <v>1.048819973459295</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066054888026658</v>
+        <v>1.016942972729298</v>
       </c>
       <c r="D12">
-        <v>1.070143719468411</v>
+        <v>1.036546424638632</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.078457553741581</v>
+        <v>1.03879132659964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055426975365256</v>
+        <v>1.053614356524291</v>
       </c>
       <c r="J12">
-        <v>1.072489649190558</v>
+        <v>1.046047190625995</v>
       </c>
       <c r="K12">
-        <v>1.073632033402876</v>
+        <v>1.051005420146355</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.081917038218707</v>
+        <v>1.053211260557106</v>
       </c>
       <c r="N12">
-        <v>1.074012707508691</v>
+        <v>1.047532697619974</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066120944820091</v>
+        <v>1.01732507942215</v>
       </c>
       <c r="D13">
-        <v>1.070197456339642</v>
+        <v>1.036850711274518</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.07851812997901</v>
+        <v>1.039126191420626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055449142153978</v>
+        <v>1.053765259015259</v>
       </c>
       <c r="J13">
-        <v>1.07253767896772</v>
+        <v>1.046323878776104</v>
       </c>
       <c r="K13">
-        <v>1.073676294064271</v>
+        <v>1.051262617181533</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.081968199486504</v>
+        <v>1.053498666772272</v>
       </c>
       <c r="N13">
-        <v>1.074060805493645</v>
+        <v>1.047809778698992</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06633736577668</v>
+        <v>1.018572175313503</v>
       </c>
       <c r="D14">
-        <v>1.070373512448025</v>
+        <v>1.037844006374099</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.078716604922313</v>
+        <v>1.040219377409967</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055521726163607</v>
+        <v>1.054257493372703</v>
       </c>
       <c r="J14">
-        <v>1.072695016455799</v>
+        <v>1.047226813433632</v>
       </c>
       <c r="K14">
-        <v>1.073821281155699</v>
+        <v>1.052101948951601</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.082135806943073</v>
+        <v>1.0544367133126</v>
       </c>
       <c r="N14">
-        <v>1.074218366419004</v>
+        <v>1.048713995627302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066470695360075</v>
+        <v>1.019336836826618</v>
       </c>
       <c r="D15">
-        <v>1.07048197364656</v>
+        <v>1.038453187040225</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.078838886108192</v>
+        <v>1.040889876675011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055566411520768</v>
+        <v>1.054559099718229</v>
       </c>
       <c r="J15">
-        <v>1.072791930030866</v>
+        <v>1.047780371293205</v>
       </c>
       <c r="K15">
-        <v>1.073910584772675</v>
+        <v>1.052616516593457</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.082239055382331</v>
+        <v>1.055011899751533</v>
       </c>
       <c r="N15">
-        <v>1.074315417622465</v>
+        <v>1.04926833960253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067246511857068</v>
+        <v>1.023732325153237</v>
       </c>
       <c r="D16">
-        <v>1.071113070848035</v>
+        <v>1.041956930680807</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.079550528724595</v>
+        <v>1.044747158397775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055825949963614</v>
+        <v>1.056289604169891</v>
       </c>
       <c r="J16">
-        <v>1.073355594420776</v>
+        <v>1.050961114719912</v>
       </c>
       <c r="K16">
-        <v>1.074429948521984</v>
+        <v>1.055573245497672</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.082839701217869</v>
+        <v>1.058318457834555</v>
       </c>
       <c r="N16">
-        <v>1.07487988248046</v>
+        <v>1.052453600049739</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.067732970349151</v>
+        <v>1.02644253280818</v>
       </c>
       <c r="D17">
-        <v>1.071508772117877</v>
+        <v>1.044118964603167</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.079996848546906</v>
+        <v>1.047128111350209</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055988268278223</v>
+        <v>1.05735374258234</v>
       </c>
       <c r="J17">
-        <v>1.073708802738863</v>
+        <v>1.052921162596173</v>
       </c>
       <c r="K17">
-        <v>1.074755361485738</v>
+        <v>1.057395255549986</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.083216203613989</v>
+        <v>1.06035736554088</v>
       </c>
       <c r="N17">
-        <v>1.075233592394874</v>
+        <v>1.054416431418805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068016645599695</v>
+        <v>1.028007043573575</v>
       </c>
       <c r="D18">
-        <v>1.071739517502985</v>
+        <v>1.045367598391323</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.080257153027346</v>
+        <v>1.048503455203615</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056082771953352</v>
+        <v>1.057966979877117</v>
       </c>
       <c r="J18">
-        <v>1.073914692825141</v>
+        <v>1.054052192216997</v>
       </c>
       <c r="K18">
-        <v>1.074945036499127</v>
+        <v>1.058446627572272</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.083435715509237</v>
+        <v>1.061534372620822</v>
       </c>
       <c r="N18">
-        <v>1.07543977486869</v>
+        <v>1.055549067231421</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068113360126674</v>
+        <v>1.028537791546866</v>
       </c>
       <c r="D19">
-        <v>1.071818185510773</v>
+        <v>1.045791280295383</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.080345905722553</v>
+        <v>1.048970179457694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056114965805932</v>
+        <v>1.058174835178867</v>
       </c>
       <c r="J19">
-        <v>1.073984873973522</v>
+        <v>1.054435808634463</v>
       </c>
       <c r="K19">
-        <v>1.075009688292339</v>
+        <v>1.058803224948029</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.083510547235448</v>
+        <v>1.061933662904046</v>
       </c>
       <c r="N19">
-        <v>1.075510055682351</v>
+        <v>1.055933228428202</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.067680784988225</v>
+        <v>1.026153453455363</v>
       </c>
       <c r="D20">
-        <v>1.071466323384684</v>
+        <v>1.043888295760526</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.079948965391641</v>
+        <v>1.046874057071482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055970871049232</v>
+        <v>1.05724034716256</v>
       </c>
       <c r="J20">
-        <v>1.073670920327005</v>
+        <v>1.052712142827955</v>
       </c>
       <c r="K20">
-        <v>1.074720461510257</v>
+        <v>1.057200956440085</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.083175818370887</v>
+        <v>1.060139886980182</v>
       </c>
       <c r="N20">
-        <v>1.075195656185645</v>
+        <v>1.054207114818541</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066273638227467</v>
+        <v>1.018205714488144</v>
       </c>
       <c r="D21">
-        <v>1.070321670977757</v>
+        <v>1.037552096212044</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.078658160205437</v>
+        <v>1.039898099530126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055500359493061</v>
+        <v>1.054112893156958</v>
       </c>
       <c r="J21">
-        <v>1.072648690166255</v>
+        <v>1.046961501411819</v>
       </c>
       <c r="K21">
-        <v>1.073778591847799</v>
+        <v>1.051855325000018</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.082086454904095</v>
+        <v>1.05416106276836</v>
       </c>
       <c r="N21">
-        <v>1.074171974340815</v>
+        <v>1.048448306831987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065388278070815</v>
+        <v>1.01304801470799</v>
       </c>
       <c r="D22">
-        <v>1.069601425947123</v>
+        <v>1.033446240437619</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.077846329097463</v>
+        <v>1.03538018298802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055202957121993</v>
+        <v>1.052074001569209</v>
       </c>
       <c r="J22">
-        <v>1.072004785549655</v>
+        <v>1.043226011541289</v>
       </c>
       <c r="K22">
-        <v>1.073185192278749</v>
+        <v>1.04838301621786</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.081400655069674</v>
+        <v>1.050281890566512</v>
       </c>
       <c r="N22">
-        <v>1.073527155305803</v>
+        <v>1.044707512137374</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06585768507169</v>
+        <v>1.015798143220983</v>
       </c>
       <c r="D23">
-        <v>1.069983294803458</v>
+        <v>1.035634910638004</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.078276720544814</v>
+        <v>1.037788275364944</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05536076518875</v>
+        <v>1.053162008133504</v>
       </c>
       <c r="J23">
-        <v>1.072346244834908</v>
+        <v>1.045218119770274</v>
       </c>
       <c r="K23">
-        <v>1.073499879763228</v>
+        <v>1.050234756310263</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.081764293978745</v>
+        <v>1.052350189370065</v>
       </c>
       <c r="N23">
-        <v>1.073869099502407</v>
+        <v>1.046702449388542</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.067704365515865</v>
+        <v>1.026284126221872</v>
       </c>
       <c r="D24">
-        <v>1.071485504326939</v>
+        <v>1.043992563432658</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.07997060180979</v>
+        <v>1.046988894639058</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055978732645346</v>
+        <v>1.057291608658327</v>
       </c>
       <c r="J24">
-        <v>1.073688038161068</v>
+        <v>1.052806627566589</v>
       </c>
       <c r="K24">
-        <v>1.074736231717478</v>
+        <v>1.057288786905409</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.083194067019258</v>
+        <v>1.060238193945012</v>
       </c>
       <c r="N24">
-        <v>1.075212798328996</v>
+        <v>1.054301733736342</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069844687800476</v>
+        <v>1.037818195351396</v>
       </c>
       <c r="D25">
-        <v>1.073226368583161</v>
+        <v>1.053206921310649</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.08193523094691</v>
+        <v>1.057143343360286</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056689033045313</v>
+        <v>1.0617933850069</v>
       </c>
       <c r="J25">
-        <v>1.075240008069137</v>
+        <v>1.061136576026305</v>
       </c>
       <c r="K25">
-        <v>1.076165743259887</v>
+        <v>1.065031829398485</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.084849495850852</v>
+        <v>1.068914922856008</v>
       </c>
       <c r="N25">
-        <v>1.076766972212349</v>
+        <v>1.062643511678328</v>
       </c>
     </row>
   </sheetData>
